--- a/resources/excelFile2.xlsx
+++ b/resources/excelFile2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
   <si>
     <t>ilyas</t>
   </si>
@@ -188,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -600,6 +600,48 @@
         <v>43</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
